--- a/warcraftLogs/data/top_N_druids.xlsx
+++ b/warcraftLogs/data/top_N_druids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hugh\git\warcraftLogs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B997B18A-C5CC-4380-A54A-66B61E9B2D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C45053-2915-4AA7-ABDB-426BD86DF7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="14505" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,13 +22,18 @@
     <sheet name="MotherShahraz" sheetId="7" r:id="rId7"/>
     <sheet name="TheIllidariCouncil" sheetId="8" r:id="rId8"/>
     <sheet name="IllidanStormrage" sheetId="9" r:id="rId9"/>
+    <sheet name="RageWinterchill" sheetId="10" r:id="rId10"/>
+    <sheet name="Anetheron" sheetId="11" r:id="rId11"/>
+    <sheet name="Kaz'rogal" sheetId="12" r:id="rId12"/>
+    <sheet name="Azgalor" sheetId="13" r:id="rId13"/>
+    <sheet name="Archimonde" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4145" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6438" uniqueCount="1332">
   <si>
     <t>Rank</t>
   </si>
@@ -3049,6 +3054,981 @@
   </si>
   <si>
     <t>0.109</t>
+  </si>
+  <si>
+    <t>夏日鲈鱼</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 沙顶</t>
+  </si>
+  <si>
+    <t>Mar 7</t>
+  </si>
+  <si>
+    <t>2:09</t>
+  </si>
+  <si>
+    <t>59.89%</t>
+  </si>
+  <si>
+    <t>2296.0</t>
+  </si>
+  <si>
+    <t>0.429</t>
+  </si>
+  <si>
+    <t>绿豆糕二</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 霜语</t>
+  </si>
+  <si>
+    <t>2:21</t>
+  </si>
+  <si>
+    <t>27.52%</t>
+  </si>
+  <si>
+    <t>梦焕</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 骨火</t>
+  </si>
+  <si>
+    <t>2:15</t>
+  </si>
+  <si>
+    <t>74.22%</t>
+  </si>
+  <si>
+    <t>1:38</t>
+  </si>
+  <si>
+    <t>26.40%</t>
+  </si>
+  <si>
+    <t>1956.1</t>
+  </si>
+  <si>
+    <t>53.70%</t>
+  </si>
+  <si>
+    <t>1929.6</t>
+  </si>
+  <si>
+    <t>1:36</t>
+  </si>
+  <si>
+    <t>32.84%</t>
+  </si>
+  <si>
+    <t>1913.2</t>
+  </si>
+  <si>
+    <t>69.48%</t>
+  </si>
+  <si>
+    <t>1895.1</t>
+  </si>
+  <si>
+    <t>9.22%</t>
+  </si>
+  <si>
+    <t>1863.8</t>
+  </si>
+  <si>
+    <t>毒奶大王</t>
+  </si>
+  <si>
+    <t>奎尔塞拉 (CN)</t>
+  </si>
+  <si>
+    <t>71.15%</t>
+  </si>
+  <si>
+    <t>1862.9</t>
+  </si>
+  <si>
+    <t>64.96%</t>
+  </si>
+  <si>
+    <t>1846.2</t>
+  </si>
+  <si>
+    <t>52.64%</t>
+  </si>
+  <si>
+    <t>1821.0</t>
+  </si>
+  <si>
+    <t>1:55</t>
+  </si>
+  <si>
+    <t>68.75%</t>
+  </si>
+  <si>
+    <t>1775.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 布鲁</t>
+  </si>
+  <si>
+    <t>53.61%</t>
+  </si>
+  <si>
+    <t>1750.1</t>
+  </si>
+  <si>
+    <t>非马梦衢</t>
+  </si>
+  <si>
+    <t>65.69%</t>
+  </si>
+  <si>
+    <t>1749.6</t>
+  </si>
+  <si>
+    <t>雷奥归来</t>
+  </si>
+  <si>
+    <t>20.80%</t>
+  </si>
+  <si>
+    <t>1747.3</t>
+  </si>
+  <si>
+    <t>0.381</t>
+  </si>
+  <si>
+    <t>丨冰丨叶丨</t>
+  </si>
+  <si>
+    <t>范克瑞斯 (CN)</t>
+  </si>
+  <si>
+    <t>Mar 14</t>
+  </si>
+  <si>
+    <t>44.07%</t>
+  </si>
+  <si>
+    <t>1737.7</t>
+  </si>
+  <si>
+    <t>猪圈丶张学友</t>
+  </si>
+  <si>
+    <t>龙牙 (CN)</t>
+  </si>
+  <si>
+    <t>2:16</t>
+  </si>
+  <si>
+    <t>52.59%</t>
+  </si>
+  <si>
+    <t>1732.1</t>
+  </si>
+  <si>
+    <t>Osheebad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Westfall</t>
+  </si>
+  <si>
+    <t>90.31%</t>
+  </si>
+  <si>
+    <t>1715.1</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>无梦生丶</t>
+  </si>
+  <si>
+    <t>55.81%</t>
+  </si>
+  <si>
+    <t>1704.8</t>
+  </si>
+  <si>
+    <t>刺屏医</t>
+  </si>
+  <si>
+    <t>1:53</t>
+  </si>
+  <si>
+    <t>27.61%</t>
+  </si>
+  <si>
+    <t>1698.3</t>
+  </si>
+  <si>
+    <t>奥罗 (CN)</t>
+  </si>
+  <si>
+    <t>Apr 4</t>
+  </si>
+  <si>
+    <t>18.56%</t>
+  </si>
+  <si>
+    <t>2686.0</t>
+  </si>
+  <si>
+    <t>1LB 1RG</t>
+  </si>
+  <si>
+    <t>一手握不下</t>
+  </si>
+  <si>
+    <t>93.48%</t>
+  </si>
+  <si>
+    <t>2365.0</t>
+  </si>
+  <si>
+    <t>2:29</t>
+  </si>
+  <si>
+    <t>6.79%</t>
+  </si>
+  <si>
+    <t>2295.5</t>
+  </si>
+  <si>
+    <t>2221.0</t>
+  </si>
+  <si>
+    <t>Spideyhoof</t>
+  </si>
+  <si>
+    <t>93.08%</t>
+  </si>
+  <si>
+    <t>2180.9</t>
+  </si>
+  <si>
+    <t>内库客热乎</t>
+  </si>
+  <si>
+    <t>24.66%</t>
+  </si>
+  <si>
+    <t>2123.3</t>
+  </si>
+  <si>
+    <t>简简心语</t>
+  </si>
+  <si>
+    <t>30.67%</t>
+  </si>
+  <si>
+    <t>2106.3</t>
+  </si>
+  <si>
+    <t>不确定二号</t>
+  </si>
+  <si>
+    <t>1:50</t>
+  </si>
+  <si>
+    <t>99.20%</t>
+  </si>
+  <si>
+    <t>2:18</t>
+  </si>
+  <si>
+    <t>57.31%</t>
+  </si>
+  <si>
+    <t>2096.8</t>
+  </si>
+  <si>
+    <t>63.76%</t>
+  </si>
+  <si>
+    <t>2079.7</t>
+  </si>
+  <si>
+    <t>萨弗拉斯 (CN)</t>
+  </si>
+  <si>
+    <t>1:45</t>
+  </si>
+  <si>
+    <t>40.34%</t>
+  </si>
+  <si>
+    <t>2041.1</t>
+  </si>
+  <si>
+    <t>江湖小牛</t>
+  </si>
+  <si>
+    <t>44.88%</t>
+  </si>
+  <si>
+    <t>2030.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 无畏</t>
+  </si>
+  <si>
+    <t>78.76%</t>
+  </si>
+  <si>
+    <t>2014.1</t>
+  </si>
+  <si>
+    <t>腌萝卜丶</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 卓越</t>
+  </si>
+  <si>
+    <t>2:10</t>
+  </si>
+  <si>
+    <t>2011.8</t>
+  </si>
+  <si>
+    <t>德克士</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 毁灭之刃</t>
+  </si>
+  <si>
+    <t>2:00</t>
+  </si>
+  <si>
+    <t>99.88%</t>
+  </si>
+  <si>
+    <t>2010.1</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>Feb 28</t>
+  </si>
+  <si>
+    <t>3:14</t>
+  </si>
+  <si>
+    <t>49.57%</t>
+  </si>
+  <si>
+    <t>1996.7</t>
+  </si>
+  <si>
+    <t>60.43%</t>
+  </si>
+  <si>
+    <t>1991.2</t>
+  </si>
+  <si>
+    <t>Infresco</t>
+  </si>
+  <si>
+    <t>1:56</t>
+  </si>
+  <si>
+    <t>84.54%</t>
+  </si>
+  <si>
+    <t>1959.7</t>
+  </si>
+  <si>
+    <t>0.107</t>
+  </si>
+  <si>
+    <t>纳嗰牧師</t>
+  </si>
+  <si>
+    <t>1:43</t>
+  </si>
+  <si>
+    <t>90.14%</t>
+  </si>
+  <si>
+    <t>1944.3</t>
+  </si>
+  <si>
+    <t>若林源三</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 希尔盖</t>
+  </si>
+  <si>
+    <t>1:57</t>
+  </si>
+  <si>
+    <t>93.35%</t>
+  </si>
+  <si>
+    <t>1941.4</t>
+  </si>
+  <si>
+    <t>2327.0</t>
+  </si>
+  <si>
+    <t>四大名补无情</t>
+  </si>
+  <si>
+    <t>辛洛斯 (CN)</t>
+  </si>
+  <si>
+    <t>38.64%</t>
+  </si>
+  <si>
+    <t>1891.9</t>
+  </si>
+  <si>
+    <t>2:04</t>
+  </si>
+  <si>
+    <t>78.33%</t>
+  </si>
+  <si>
+    <t>1828.7</t>
+  </si>
+  <si>
+    <t>0.281</t>
+  </si>
+  <si>
+    <t>茗茗是你</t>
+  </si>
+  <si>
+    <t>1710.2</t>
+  </si>
+  <si>
+    <t>1687.6</t>
+  </si>
+  <si>
+    <t>1636.4</t>
+  </si>
+  <si>
+    <t>鱼的眼泪</t>
+  </si>
+  <si>
+    <t>71.88%</t>
+  </si>
+  <si>
+    <t>1611.4</t>
+  </si>
+  <si>
+    <t>0.548</t>
+  </si>
+  <si>
+    <t>0.097</t>
+  </si>
+  <si>
+    <t>72.77%</t>
+  </si>
+  <si>
+    <t>1590.0</t>
+  </si>
+  <si>
+    <t>2:12</t>
+  </si>
+  <si>
+    <t>1582.3</t>
+  </si>
+  <si>
+    <t>Tranquility</t>
+  </si>
+  <si>
+    <t>90.49%</t>
+  </si>
+  <si>
+    <t>1572.2</t>
+  </si>
+  <si>
+    <t>0.414</t>
+  </si>
+  <si>
+    <t>0.172</t>
+  </si>
+  <si>
+    <t>96.73%</t>
+  </si>
+  <si>
+    <t>1551.2</t>
+  </si>
+  <si>
+    <t>3:15</t>
+  </si>
+  <si>
+    <t>89.75%</t>
+  </si>
+  <si>
+    <t>1534.7</t>
+  </si>
+  <si>
+    <t>0.317</t>
+  </si>
+  <si>
+    <t>0.098</t>
+  </si>
+  <si>
+    <t>1:41</t>
+  </si>
+  <si>
+    <t>54.77%</t>
+  </si>
+  <si>
+    <t>1523.0</t>
+  </si>
+  <si>
+    <t>0.348</t>
+  </si>
+  <si>
+    <t>疯子妖妖九</t>
+  </si>
+  <si>
+    <t>灰烬使者 (CN)</t>
+  </si>
+  <si>
+    <t>76.94%</t>
+  </si>
+  <si>
+    <t>1518.0</t>
+  </si>
+  <si>
+    <t>97.69%</t>
+  </si>
+  <si>
+    <t>1477.9</t>
+  </si>
+  <si>
+    <t>네푸</t>
+  </si>
+  <si>
+    <t>1:22</t>
+  </si>
+  <si>
+    <t>78.71%</t>
+  </si>
+  <si>
+    <t>1461.0</t>
+  </si>
+  <si>
+    <t>66.58%</t>
+  </si>
+  <si>
+    <t>1459.6</t>
+  </si>
+  <si>
+    <t>跟风</t>
+  </si>
+  <si>
+    <t>3:09</t>
+  </si>
+  <si>
+    <t>62.74%</t>
+  </si>
+  <si>
+    <t>1459.5</t>
+  </si>
+  <si>
+    <t>还是加血</t>
+  </si>
+  <si>
+    <t>2:44</t>
+  </si>
+  <si>
+    <t>99.68%</t>
+  </si>
+  <si>
+    <t>1457.4</t>
+  </si>
+  <si>
+    <t>48.92%</t>
+  </si>
+  <si>
+    <t>1445.3</t>
+  </si>
+  <si>
+    <t>0.344</t>
+  </si>
+  <si>
+    <t>9.43%</t>
+  </si>
+  <si>
+    <t>2097.3</t>
+  </si>
+  <si>
+    <t>2:27</t>
+  </si>
+  <si>
+    <t>54.11%</t>
+  </si>
+  <si>
+    <t>1819.9</t>
+  </si>
+  <si>
+    <t>Stinky</t>
+  </si>
+  <si>
+    <t>85.31%</t>
+  </si>
+  <si>
+    <t>1716.4</t>
+  </si>
+  <si>
+    <t>57.67%</t>
+  </si>
+  <si>
+    <t>1700.7</t>
+  </si>
+  <si>
+    <t>深圳马爸爸</t>
+  </si>
+  <si>
+    <t>85.19%</t>
+  </si>
+  <si>
+    <t>1694.7</t>
+  </si>
+  <si>
+    <t>Nebina</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nethergarde</t>
+  </si>
+  <si>
+    <t>63.96%</t>
+  </si>
+  <si>
+    <t>1681.6</t>
+  </si>
+  <si>
+    <t>Bigdaddyfawz</t>
+  </si>
+  <si>
+    <t>Arugal (US)</t>
+  </si>
+  <si>
+    <t>2:11</t>
+  </si>
+  <si>
+    <t>1668.8</t>
+  </si>
+  <si>
+    <t>Jikinizj</t>
+  </si>
+  <si>
+    <t>2:02</t>
+  </si>
+  <si>
+    <t>97.05%</t>
+  </si>
+  <si>
+    <t>1657.7</t>
+  </si>
+  <si>
+    <t>2:45</t>
+  </si>
+  <si>
+    <t>75.81%</t>
+  </si>
+  <si>
+    <t>1625.4</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.419</t>
+  </si>
+  <si>
+    <t>Lildyl</t>
+  </si>
+  <si>
+    <t>62.33%</t>
+  </si>
+  <si>
+    <t>1619.5</t>
+  </si>
+  <si>
+    <t>伪电气白兰</t>
+  </si>
+  <si>
+    <t>1582.6</t>
+  </si>
+  <si>
+    <t>40.16%</t>
+  </si>
+  <si>
+    <t>1582.2</t>
+  </si>
+  <si>
+    <t>Gooses</t>
+  </si>
+  <si>
+    <t>97.09%</t>
+  </si>
+  <si>
+    <t>1578.8</t>
+  </si>
+  <si>
+    <t>Alicé</t>
+  </si>
+  <si>
+    <t>1:58</t>
+  </si>
+  <si>
+    <t>78.45%</t>
+  </si>
+  <si>
+    <t>1575.0</t>
+  </si>
+  <si>
+    <t>Beneh</t>
+  </si>
+  <si>
+    <t>97.28%</t>
+  </si>
+  <si>
+    <t>1568.8</t>
+  </si>
+  <si>
+    <t>天季</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 莫格莱尼</t>
+  </si>
+  <si>
+    <t>96.25%</t>
+  </si>
+  <si>
+    <t>1564.0</t>
+  </si>
+  <si>
+    <t>0.194</t>
+  </si>
+  <si>
+    <t>宁静之风图腾</t>
+  </si>
+  <si>
+    <t>秩序之源 (CN)</t>
+  </si>
+  <si>
+    <t>69.86%</t>
+  </si>
+  <si>
+    <t>1563.4</t>
+  </si>
+  <si>
+    <t>55.71%</t>
+  </si>
+  <si>
+    <t>1557.1</t>
+  </si>
+  <si>
+    <t>97.25%</t>
+  </si>
+  <si>
+    <t>1551.8</t>
+  </si>
+  <si>
+    <t>1:54</t>
+  </si>
+  <si>
+    <t>64.70%</t>
+  </si>
+  <si>
+    <t>1540.0</t>
+  </si>
+  <si>
+    <t>2:17</t>
+  </si>
+  <si>
+    <t>47.11%</t>
+  </si>
+  <si>
+    <t>2076.5</t>
+  </si>
+  <si>
+    <t>0.227</t>
+  </si>
+  <si>
+    <t>84.16%</t>
+  </si>
+  <si>
+    <t>1854.0</t>
+  </si>
+  <si>
+    <t>3:34</t>
+  </si>
+  <si>
+    <t>75.19%</t>
+  </si>
+  <si>
+    <t>1851.3</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>Vanced</t>
+  </si>
+  <si>
+    <t>97.63%</t>
+  </si>
+  <si>
+    <t>1847.9</t>
+  </si>
+  <si>
+    <t>Explosive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Atiesh</t>
+  </si>
+  <si>
+    <t>93.67%</t>
+  </si>
+  <si>
+    <t>1843.5</t>
+  </si>
+  <si>
+    <t>1LB 1I</t>
+  </si>
+  <si>
+    <t>Vivatrex</t>
+  </si>
+  <si>
+    <t>24.16%</t>
+  </si>
+  <si>
+    <t>1789.3</t>
+  </si>
+  <si>
+    <t>84.35%</t>
+  </si>
+  <si>
+    <t>48.00%</t>
+  </si>
+  <si>
+    <t>1776.3</t>
+  </si>
+  <si>
+    <t>熊掌拨清波灬</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 比格沃斯</t>
+  </si>
+  <si>
+    <t>27.87%</t>
+  </si>
+  <si>
+    <t>1761.0</t>
+  </si>
+  <si>
+    <t>Nachobeár</t>
+  </si>
+  <si>
+    <t>64.20%</t>
+  </si>
+  <si>
+    <t>1741.1</t>
+  </si>
+  <si>
+    <t>0.152</t>
+  </si>
+  <si>
+    <t>80.77%</t>
+  </si>
+  <si>
+    <t>1722.6</t>
+  </si>
+  <si>
+    <t>Velve</t>
+  </si>
+  <si>
+    <t>97.96%</t>
+  </si>
+  <si>
+    <t>1716.8</t>
+  </si>
+  <si>
+    <t>45.56%</t>
+  </si>
+  <si>
+    <t>Ushimane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Windseeker</t>
+  </si>
+  <si>
+    <t>86.38%</t>
+  </si>
+  <si>
+    <t>1712.2</t>
+  </si>
+  <si>
+    <t>艾利西妲</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 娅尔罗</t>
+  </si>
+  <si>
+    <t>19.83%</t>
+  </si>
+  <si>
+    <t>1702.3</t>
+  </si>
+  <si>
+    <t>Thomyeah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Golemagg</t>
+  </si>
+  <si>
+    <t>3:40</t>
+  </si>
+  <si>
+    <t>97.86%</t>
+  </si>
+  <si>
+    <t>1681.1</t>
+  </si>
+  <si>
+    <t>生物不及格</t>
+  </si>
+  <si>
+    <t>2:57</t>
+  </si>
+  <si>
+    <t>53.75%</t>
+  </si>
+  <si>
+    <t>1671.2</t>
+  </si>
+  <si>
+    <t>伊塞尔丶月枭</t>
+  </si>
+  <si>
+    <t>85.36%</t>
+  </si>
+  <si>
+    <t>1652.5</t>
+  </si>
+  <si>
+    <t>Shapesx</t>
+  </si>
+  <si>
+    <t>1:30</t>
+  </si>
+  <si>
+    <t>1650.3</t>
+  </si>
+  <si>
+    <t>0.611</t>
   </si>
 </sst>
 </file>
@@ -4890,6 +5870,7458 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:W21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="N2" t="s">
+        <v>252</v>
+      </c>
+      <c r="O2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" t="s">
+        <v>208</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="M3" t="s">
+        <v>351</v>
+      </c>
+      <c r="N3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>153</v>
+      </c>
+      <c r="R3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" t="s">
+        <v>303</v>
+      </c>
+      <c r="V3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="M4" t="s">
+        <v>781</v>
+      </c>
+      <c r="N4" t="s">
+        <v>206</v>
+      </c>
+      <c r="O4" t="s">
+        <v>105</v>
+      </c>
+      <c r="P4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>311</v>
+      </c>
+      <c r="R4" t="s">
+        <v>205</v>
+      </c>
+      <c r="S4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" t="s">
+        <v>208</v>
+      </c>
+      <c r="U4" t="s">
+        <v>279</v>
+      </c>
+      <c r="V4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>612</v>
+      </c>
+      <c r="R5" t="s">
+        <v>105</v>
+      </c>
+      <c r="S5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" t="s">
+        <v>72</v>
+      </c>
+      <c r="V5" t="s">
+        <v>73</v>
+      </c>
+      <c r="W5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="N6" t="s">
+        <v>205</v>
+      </c>
+      <c r="O6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>498</v>
+      </c>
+      <c r="R6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U6" t="s">
+        <v>369</v>
+      </c>
+      <c r="V6" t="s">
+        <v>208</v>
+      </c>
+      <c r="W6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" t="s">
+        <v>90</v>
+      </c>
+      <c r="S7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U7" t="s">
+        <v>369</v>
+      </c>
+      <c r="V7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>592</v>
+      </c>
+      <c r="C8" t="s">
+        <v>593</v>
+      </c>
+      <c r="D8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E8" t="s">
+        <v>405</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1031</v>
+      </c>
+      <c r="N8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>538</v>
+      </c>
+      <c r="R8" t="s">
+        <v>126</v>
+      </c>
+      <c r="S8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" t="s">
+        <v>164</v>
+      </c>
+      <c r="U8" t="s">
+        <v>92</v>
+      </c>
+      <c r="V8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" t="s">
+        <v>449</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>674</v>
+      </c>
+      <c r="R9" t="s">
+        <v>142</v>
+      </c>
+      <c r="S9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" t="s">
+        <v>244</v>
+      </c>
+      <c r="V9" t="s">
+        <v>50</v>
+      </c>
+      <c r="W9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E10" t="s">
+        <v>414</v>
+      </c>
+      <c r="F10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1037</v>
+      </c>
+      <c r="N10" t="s">
+        <v>161</v>
+      </c>
+      <c r="O10" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>222</v>
+      </c>
+      <c r="R10" t="s">
+        <v>126</v>
+      </c>
+      <c r="S10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" t="s">
+        <v>208</v>
+      </c>
+      <c r="U10" t="s">
+        <v>165</v>
+      </c>
+      <c r="V10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" t="s">
+        <v>386</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1038</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="N11" t="s">
+        <v>252</v>
+      </c>
+      <c r="O11" t="s">
+        <v>105</v>
+      </c>
+      <c r="P11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>750</v>
+      </c>
+      <c r="R11" t="s">
+        <v>105</v>
+      </c>
+      <c r="S11" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" t="s">
+        <v>208</v>
+      </c>
+      <c r="U11" t="s">
+        <v>279</v>
+      </c>
+      <c r="V11" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" t="s">
+        <v>375</v>
+      </c>
+      <c r="F12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="N12" t="s">
+        <v>205</v>
+      </c>
+      <c r="O12" t="s">
+        <v>90</v>
+      </c>
+      <c r="P12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>498</v>
+      </c>
+      <c r="R12" t="s">
+        <v>142</v>
+      </c>
+      <c r="S12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T12" t="s">
+        <v>50</v>
+      </c>
+      <c r="U12" t="s">
+        <v>389</v>
+      </c>
+      <c r="V12" t="s">
+        <v>208</v>
+      </c>
+      <c r="W12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>439</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1043</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1044</v>
+      </c>
+      <c r="N13" t="s">
+        <v>206</v>
+      </c>
+      <c r="O13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>134</v>
+      </c>
+      <c r="R13" t="s">
+        <v>105</v>
+      </c>
+      <c r="S13" t="s">
+        <v>28</v>
+      </c>
+      <c r="T13" t="s">
+        <v>208</v>
+      </c>
+      <c r="U13" t="s">
+        <v>423</v>
+      </c>
+      <c r="V13" t="s">
+        <v>318</v>
+      </c>
+      <c r="W13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>955</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1046</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1047</v>
+      </c>
+      <c r="N14" t="s">
+        <v>205</v>
+      </c>
+      <c r="O14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" t="s">
+        <v>80</v>
+      </c>
+      <c r="S14" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" t="s">
+        <v>701</v>
+      </c>
+      <c r="V14" t="s">
+        <v>208</v>
+      </c>
+      <c r="W14" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C15" t="s">
+        <v>534</v>
+      </c>
+      <c r="D15" t="s">
+        <v>273</v>
+      </c>
+      <c r="E15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1050</v>
+      </c>
+      <c r="N15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" t="s">
+        <v>105</v>
+      </c>
+      <c r="P15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>311</v>
+      </c>
+      <c r="R15" t="s">
+        <v>161</v>
+      </c>
+      <c r="S15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T15" t="s">
+        <v>208</v>
+      </c>
+      <c r="U15" t="s">
+        <v>279</v>
+      </c>
+      <c r="V15" t="s">
+        <v>50</v>
+      </c>
+      <c r="W15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" t="s">
+        <v>374</v>
+      </c>
+      <c r="E16" t="s">
+        <v>479</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>187</v>
+      </c>
+      <c r="R16" t="s">
+        <v>33</v>
+      </c>
+      <c r="S16" t="s">
+        <v>28</v>
+      </c>
+      <c r="T16" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" t="s">
+        <v>1054</v>
+      </c>
+      <c r="V16" t="s">
+        <v>50</v>
+      </c>
+      <c r="W16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E17" t="s">
+        <v>296</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N17" t="s">
+        <v>90</v>
+      </c>
+      <c r="O17" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>612</v>
+      </c>
+      <c r="R17" t="s">
+        <v>90</v>
+      </c>
+      <c r="S17" t="s">
+        <v>28</v>
+      </c>
+      <c r="T17" t="s">
+        <v>36</v>
+      </c>
+      <c r="U17" t="s">
+        <v>165</v>
+      </c>
+      <c r="V17" t="s">
+        <v>208</v>
+      </c>
+      <c r="W17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1064</v>
+      </c>
+      <c r="N18" t="s">
+        <v>216</v>
+      </c>
+      <c r="O18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P18" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>452</v>
+      </c>
+      <c r="R18" t="s">
+        <v>142</v>
+      </c>
+      <c r="S18" t="s">
+        <v>28</v>
+      </c>
+      <c r="T18" t="s">
+        <v>208</v>
+      </c>
+      <c r="U18" t="s">
+        <v>303</v>
+      </c>
+      <c r="V18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E19" t="s">
+        <v>409</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1068</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1069</v>
+      </c>
+      <c r="O19" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>260</v>
+      </c>
+      <c r="R19" t="s">
+        <v>90</v>
+      </c>
+      <c r="S19" t="s">
+        <v>29</v>
+      </c>
+      <c r="T19" t="s">
+        <v>208</v>
+      </c>
+      <c r="U19" t="s">
+        <v>65</v>
+      </c>
+      <c r="V19" t="s">
+        <v>318</v>
+      </c>
+      <c r="W19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C20" t="s">
+        <v>534</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1071</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="N20" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" t="s">
+        <v>48</v>
+      </c>
+      <c r="P20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>538</v>
+      </c>
+      <c r="R20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S20" t="s">
+        <v>28</v>
+      </c>
+      <c r="T20" t="s">
+        <v>208</v>
+      </c>
+      <c r="U20" t="s">
+        <v>360</v>
+      </c>
+      <c r="V20" t="s">
+        <v>50</v>
+      </c>
+      <c r="W20" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C21" t="s">
+        <v>796</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1075</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1076</v>
+      </c>
+      <c r="N21" t="s">
+        <v>105</v>
+      </c>
+      <c r="O21" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>153</v>
+      </c>
+      <c r="R21" t="s">
+        <v>142</v>
+      </c>
+      <c r="S21" t="s">
+        <v>28</v>
+      </c>
+      <c r="T21" t="s">
+        <v>50</v>
+      </c>
+      <c r="U21" t="s">
+        <v>423</v>
+      </c>
+      <c r="V21" t="s">
+        <v>108</v>
+      </c>
+      <c r="W21" t="s">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:W21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="N2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>851</v>
+      </c>
+      <c r="R2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" t="s">
+        <v>208</v>
+      </c>
+      <c r="U2" t="s">
+        <v>828</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="W2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C3" t="s">
+        <v>796</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="N3" t="s">
+        <v>215</v>
+      </c>
+      <c r="O3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>368</v>
+      </c>
+      <c r="R3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" t="s">
+        <v>244</v>
+      </c>
+      <c r="V3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C4" t="s">
+        <v>711</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4" t="s">
+        <v>828</v>
+      </c>
+      <c r="V4" t="s">
+        <v>164</v>
+      </c>
+      <c r="W4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" t="s">
+        <v>510</v>
+      </c>
+      <c r="E5" t="s">
+        <v>797</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>382</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="N5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>398</v>
+      </c>
+      <c r="R5" t="s">
+        <v>90</v>
+      </c>
+      <c r="S5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" t="s">
+        <v>166</v>
+      </c>
+      <c r="U5" t="s">
+        <v>999</v>
+      </c>
+      <c r="V5" t="s">
+        <v>208</v>
+      </c>
+      <c r="W5" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="N6" t="s">
+        <v>277</v>
+      </c>
+      <c r="O6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P6" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>384</v>
+      </c>
+      <c r="R6" t="s">
+        <v>105</v>
+      </c>
+      <c r="S6" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" t="s">
+        <v>384</v>
+      </c>
+      <c r="V6" t="s">
+        <v>50</v>
+      </c>
+      <c r="W6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1093</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>612</v>
+      </c>
+      <c r="R7" t="s">
+        <v>142</v>
+      </c>
+      <c r="S7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" t="s">
+        <v>236</v>
+      </c>
+      <c r="V7" t="s">
+        <v>50</v>
+      </c>
+      <c r="W7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C8" t="s">
+        <v>742</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1097</v>
+      </c>
+      <c r="N8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>143</v>
+      </c>
+      <c r="R8" t="s">
+        <v>142</v>
+      </c>
+      <c r="S8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" t="s">
+        <v>244</v>
+      </c>
+      <c r="V8" t="s">
+        <v>50</v>
+      </c>
+      <c r="W8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D9" t="s">
+        <v>718</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="M9" t="s">
+        <v>850</v>
+      </c>
+      <c r="N9" t="s">
+        <v>261</v>
+      </c>
+      <c r="O9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>384</v>
+      </c>
+      <c r="R9" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" t="s">
+        <v>208</v>
+      </c>
+      <c r="U9" t="s">
+        <v>223</v>
+      </c>
+      <c r="V9" t="s">
+        <v>164</v>
+      </c>
+      <c r="W9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1102</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1103</v>
+      </c>
+      <c r="N10" t="s">
+        <v>126</v>
+      </c>
+      <c r="O10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>311</v>
+      </c>
+      <c r="R10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S10" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" t="s">
+        <v>208</v>
+      </c>
+      <c r="U10" t="s">
+        <v>253</v>
+      </c>
+      <c r="V10" t="s">
+        <v>166</v>
+      </c>
+      <c r="W10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1104</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="N11" t="s">
+        <v>161</v>
+      </c>
+      <c r="O11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>106</v>
+      </c>
+      <c r="R11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T11" t="s">
+        <v>208</v>
+      </c>
+      <c r="U11" t="s">
+        <v>269</v>
+      </c>
+      <c r="V11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>931</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D12" t="s">
+        <v>759</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1108</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1109</v>
+      </c>
+      <c r="N12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" t="s">
+        <v>142</v>
+      </c>
+      <c r="P12" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>538</v>
+      </c>
+      <c r="R12" t="s">
+        <v>90</v>
+      </c>
+      <c r="S12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T12" t="s">
+        <v>208</v>
+      </c>
+      <c r="U12" t="s">
+        <v>223</v>
+      </c>
+      <c r="V12" t="s">
+        <v>36</v>
+      </c>
+      <c r="W12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>307</v>
+      </c>
+      <c r="E13" t="s">
+        <v>224</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1111</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1112</v>
+      </c>
+      <c r="N13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>311</v>
+      </c>
+      <c r="R13" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" t="s">
+        <v>28</v>
+      </c>
+      <c r="T13" t="s">
+        <v>208</v>
+      </c>
+      <c r="U13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="V13" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>363</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="N14" t="s">
+        <v>161</v>
+      </c>
+      <c r="O14" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>498</v>
+      </c>
+      <c r="R14" t="s">
+        <v>33</v>
+      </c>
+      <c r="S14" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" t="s">
+        <v>208</v>
+      </c>
+      <c r="U14" t="s">
+        <v>39</v>
+      </c>
+      <c r="V14" t="s">
+        <v>166</v>
+      </c>
+      <c r="W14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" t="s">
+        <v>650</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1119</v>
+      </c>
+      <c r="N15" t="s">
+        <v>105</v>
+      </c>
+      <c r="O15" t="s">
+        <v>105</v>
+      </c>
+      <c r="P15" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>851</v>
+      </c>
+      <c r="R15" t="s">
+        <v>105</v>
+      </c>
+      <c r="S15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T15" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" t="s">
+        <v>269</v>
+      </c>
+      <c r="V15" t="s">
+        <v>208</v>
+      </c>
+      <c r="W15" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D16" t="s">
+        <v>374</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1123</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1124</v>
+      </c>
+      <c r="N16" t="s">
+        <v>613</v>
+      </c>
+      <c r="O16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1125</v>
+      </c>
+      <c r="R16" t="s">
+        <v>80</v>
+      </c>
+      <c r="S16" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" t="s">
+        <v>91</v>
+      </c>
+      <c r="U16" t="s">
+        <v>905</v>
+      </c>
+      <c r="V16" t="s">
+        <v>164</v>
+      </c>
+      <c r="W16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>807</v>
+      </c>
+      <c r="C17" t="s">
+        <v>808</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1128</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1129</v>
+      </c>
+      <c r="N17" t="s">
+        <v>205</v>
+      </c>
+      <c r="O17" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>227</v>
+      </c>
+      <c r="R17" t="s">
+        <v>142</v>
+      </c>
+      <c r="S17" t="s">
+        <v>28</v>
+      </c>
+      <c r="T17" t="s">
+        <v>36</v>
+      </c>
+      <c r="U17" t="s">
+        <v>279</v>
+      </c>
+      <c r="V17" t="s">
+        <v>208</v>
+      </c>
+      <c r="W17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>955</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1130</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1131</v>
+      </c>
+      <c r="N18" t="s">
+        <v>90</v>
+      </c>
+      <c r="O18" t="s">
+        <v>80</v>
+      </c>
+      <c r="P18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>612</v>
+      </c>
+      <c r="R18" t="s">
+        <v>80</v>
+      </c>
+      <c r="S18" t="s">
+        <v>29</v>
+      </c>
+      <c r="T18" t="s">
+        <v>208</v>
+      </c>
+      <c r="U18" t="s">
+        <v>223</v>
+      </c>
+      <c r="V18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W18" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C19" t="s">
+        <v>380</v>
+      </c>
+      <c r="D19" t="s">
+        <v>348</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1134</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1135</v>
+      </c>
+      <c r="N19" t="s">
+        <v>482</v>
+      </c>
+      <c r="O19" t="s">
+        <v>48</v>
+      </c>
+      <c r="P19" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>730</v>
+      </c>
+      <c r="R19" t="s">
+        <v>80</v>
+      </c>
+      <c r="S19" t="s">
+        <v>29</v>
+      </c>
+      <c r="T19" t="s">
+        <v>208</v>
+      </c>
+      <c r="U19" t="s">
+        <v>244</v>
+      </c>
+      <c r="V19" t="s">
+        <v>164</v>
+      </c>
+      <c r="W19" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>732</v>
+      </c>
+      <c r="D20" t="s">
+        <v>273</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1139</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N20" t="s">
+        <v>482</v>
+      </c>
+      <c r="O20" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>341</v>
+      </c>
+      <c r="R20" t="s">
+        <v>80</v>
+      </c>
+      <c r="S20" t="s">
+        <v>29</v>
+      </c>
+      <c r="T20" t="s">
+        <v>164</v>
+      </c>
+      <c r="U20" t="s">
+        <v>399</v>
+      </c>
+      <c r="V20" t="s">
+        <v>208</v>
+      </c>
+      <c r="W20" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1144</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1145</v>
+      </c>
+      <c r="N21" t="s">
+        <v>215</v>
+      </c>
+      <c r="O21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>81</v>
+      </c>
+      <c r="R21" t="s">
+        <v>90</v>
+      </c>
+      <c r="S21" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" t="s">
+        <v>208</v>
+      </c>
+      <c r="U21" t="s">
+        <v>223</v>
+      </c>
+      <c r="V21" t="s">
+        <v>166</v>
+      </c>
+      <c r="W21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:W21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>851</v>
+      </c>
+      <c r="R2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>244</v>
+      </c>
+      <c r="V2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="N3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R3" t="s">
+        <v>80</v>
+      </c>
+      <c r="S3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" t="s">
+        <v>223</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="W3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="N4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="R4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" t="s">
+        <v>208</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="V4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C5" t="s">
+        <v>742</v>
+      </c>
+      <c r="D5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="N5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>715</v>
+      </c>
+      <c r="R5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" t="s">
+        <v>423</v>
+      </c>
+      <c r="V5" t="s">
+        <v>208</v>
+      </c>
+      <c r="W5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" t="s">
+        <v>528</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>382</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N6" t="s">
+        <v>287</v>
+      </c>
+      <c r="O6" t="s">
+        <v>206</v>
+      </c>
+      <c r="P6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>260</v>
+      </c>
+      <c r="R6" t="s">
+        <v>80</v>
+      </c>
+      <c r="S6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U6" t="s">
+        <v>652</v>
+      </c>
+      <c r="V6" t="s">
+        <v>207</v>
+      </c>
+      <c r="W6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>528</v>
+      </c>
+      <c r="F7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>382</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1158</v>
+      </c>
+      <c r="N7" t="s">
+        <v>613</v>
+      </c>
+      <c r="O7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>520</v>
+      </c>
+      <c r="R7" t="s">
+        <v>90</v>
+      </c>
+      <c r="S7" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" t="s">
+        <v>164</v>
+      </c>
+      <c r="U7" t="s">
+        <v>294</v>
+      </c>
+      <c r="V7" t="s">
+        <v>91</v>
+      </c>
+      <c r="W7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1160</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1161</v>
+      </c>
+      <c r="N8" t="s">
+        <v>252</v>
+      </c>
+      <c r="O8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R8" t="s">
+        <v>126</v>
+      </c>
+      <c r="S8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" t="s">
+        <v>208</v>
+      </c>
+      <c r="U8" t="s">
+        <v>1162</v>
+      </c>
+      <c r="V8" t="s">
+        <v>50</v>
+      </c>
+      <c r="W8" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" t="s">
+        <v>718</v>
+      </c>
+      <c r="E9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1164</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1165</v>
+      </c>
+      <c r="N9" t="s">
+        <v>215</v>
+      </c>
+      <c r="O9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>235</v>
+      </c>
+      <c r="R9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" t="s">
+        <v>208</v>
+      </c>
+      <c r="U9" t="s">
+        <v>294</v>
+      </c>
+      <c r="V9" t="s">
+        <v>318</v>
+      </c>
+      <c r="W9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>266</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1167</v>
+      </c>
+      <c r="N10" t="s">
+        <v>162</v>
+      </c>
+      <c r="O10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>335</v>
+      </c>
+      <c r="R10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" t="s">
+        <v>208</v>
+      </c>
+      <c r="U10" t="s">
+        <v>705</v>
+      </c>
+      <c r="V10" t="s">
+        <v>91</v>
+      </c>
+      <c r="W10" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C11" t="s">
+        <v>742</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1169</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1170</v>
+      </c>
+      <c r="N11" t="s">
+        <v>162</v>
+      </c>
+      <c r="O11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>352</v>
+      </c>
+      <c r="R11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" t="s">
+        <v>208</v>
+      </c>
+      <c r="U11" t="s">
+        <v>1171</v>
+      </c>
+      <c r="V11" t="s">
+        <v>164</v>
+      </c>
+      <c r="W11" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>516</v>
+      </c>
+      <c r="C12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1173</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1174</v>
+      </c>
+      <c r="N12" t="s">
+        <v>316</v>
+      </c>
+      <c r="O12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>277</v>
+      </c>
+      <c r="R12" t="s">
+        <v>90</v>
+      </c>
+      <c r="S12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T12" t="s">
+        <v>38</v>
+      </c>
+      <c r="U12" t="s">
+        <v>72</v>
+      </c>
+      <c r="V12" t="s">
+        <v>73</v>
+      </c>
+      <c r="W12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D13" t="s">
+        <v>374</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1176</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1177</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1069</v>
+      </c>
+      <c r="O13" t="s">
+        <v>205</v>
+      </c>
+      <c r="P13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>286</v>
+      </c>
+      <c r="R13" t="s">
+        <v>142</v>
+      </c>
+      <c r="S13" t="s">
+        <v>29</v>
+      </c>
+      <c r="T13" t="s">
+        <v>208</v>
+      </c>
+      <c r="U13" t="s">
+        <v>1178</v>
+      </c>
+      <c r="V13" t="s">
+        <v>514</v>
+      </c>
+      <c r="W13" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>555</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>264</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1181</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1182</v>
+      </c>
+      <c r="N14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" t="s">
+        <v>105</v>
+      </c>
+      <c r="S14" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" t="s">
+        <v>208</v>
+      </c>
+      <c r="U14" t="s">
+        <v>1183</v>
+      </c>
+      <c r="V14" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" t="s">
+        <v>349</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1186</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1187</v>
+      </c>
+      <c r="N15" t="s">
+        <v>598</v>
+      </c>
+      <c r="O15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>325</v>
+      </c>
+      <c r="R15" t="s">
+        <v>105</v>
+      </c>
+      <c r="S15" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" t="s">
+        <v>208</v>
+      </c>
+      <c r="U15" t="s">
+        <v>154</v>
+      </c>
+      <c r="V15" t="s">
+        <v>207</v>
+      </c>
+      <c r="W15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>702</v>
+      </c>
+      <c r="C16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" t="s">
+        <v>456</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1188</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1189</v>
+      </c>
+      <c r="N16" t="s">
+        <v>352</v>
+      </c>
+      <c r="O16" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>34</v>
+      </c>
+      <c r="R16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" t="s">
+        <v>208</v>
+      </c>
+      <c r="U16" t="s">
+        <v>223</v>
+      </c>
+      <c r="V16" t="s">
+        <v>514</v>
+      </c>
+      <c r="W16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1192</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1193</v>
+      </c>
+      <c r="N17" t="s">
+        <v>299</v>
+      </c>
+      <c r="O17" t="s">
+        <v>48</v>
+      </c>
+      <c r="P17" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>134</v>
+      </c>
+      <c r="R17" t="s">
+        <v>142</v>
+      </c>
+      <c r="S17" t="s">
+        <v>28</v>
+      </c>
+      <c r="T17" t="s">
+        <v>38</v>
+      </c>
+      <c r="U17" t="s">
+        <v>72</v>
+      </c>
+      <c r="V17" t="s">
+        <v>73</v>
+      </c>
+      <c r="W17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>679</v>
+      </c>
+      <c r="C18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D18" t="s">
+        <v>264</v>
+      </c>
+      <c r="E18" t="s">
+        <v>405</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1194</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1195</v>
+      </c>
+      <c r="N18" t="s">
+        <v>867</v>
+      </c>
+      <c r="O18" t="s">
+        <v>90</v>
+      </c>
+      <c r="P18" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>163</v>
+      </c>
+      <c r="R18" t="s">
+        <v>34</v>
+      </c>
+      <c r="S18" t="s">
+        <v>29</v>
+      </c>
+      <c r="T18" t="s">
+        <v>36</v>
+      </c>
+      <c r="U18" t="s">
+        <v>701</v>
+      </c>
+      <c r="V18" t="s">
+        <v>208</v>
+      </c>
+      <c r="W18" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D19" t="s">
+        <v>692</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1198</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1199</v>
+      </c>
+      <c r="N19" t="s">
+        <v>88</v>
+      </c>
+      <c r="O19" t="s">
+        <v>126</v>
+      </c>
+      <c r="P19" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>452</v>
+      </c>
+      <c r="R19" t="s">
+        <v>46</v>
+      </c>
+      <c r="S19" t="s">
+        <v>29</v>
+      </c>
+      <c r="T19" t="s">
+        <v>208</v>
+      </c>
+      <c r="U19" t="s">
+        <v>752</v>
+      </c>
+      <c r="V19" t="s">
+        <v>50</v>
+      </c>
+      <c r="W19" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C20" t="s">
+        <v>995</v>
+      </c>
+      <c r="D20" t="s">
+        <v>273</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F20" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1202</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1203</v>
+      </c>
+      <c r="N20" t="s">
+        <v>316</v>
+      </c>
+      <c r="O20" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>142</v>
+      </c>
+      <c r="R20" t="s">
+        <v>46</v>
+      </c>
+      <c r="S20" t="s">
+        <v>29</v>
+      </c>
+      <c r="T20" t="s">
+        <v>318</v>
+      </c>
+      <c r="U20" t="s">
+        <v>223</v>
+      </c>
+      <c r="V20" t="s">
+        <v>514</v>
+      </c>
+      <c r="W20" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>470</v>
+      </c>
+      <c r="C21" t="s">
+        <v>711</v>
+      </c>
+      <c r="D21" t="s">
+        <v>290</v>
+      </c>
+      <c r="E21" t="s">
+        <v>815</v>
+      </c>
+      <c r="F21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1204</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1205</v>
+      </c>
+      <c r="N21" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>287</v>
+      </c>
+      <c r="R21" t="s">
+        <v>33</v>
+      </c>
+      <c r="S21" t="s">
+        <v>28</v>
+      </c>
+      <c r="T21" t="s">
+        <v>208</v>
+      </c>
+      <c r="U21" t="s">
+        <v>1206</v>
+      </c>
+      <c r="V21" t="s">
+        <v>50</v>
+      </c>
+      <c r="W21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:W21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="N2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>186</v>
+      </c>
+      <c r="R2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>417</v>
+      </c>
+      <c r="V2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="N3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O3" t="s">
+        <v>142</v>
+      </c>
+      <c r="P3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>181</v>
+      </c>
+      <c r="R3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" t="s">
+        <v>208</v>
+      </c>
+      <c r="U3" t="s">
+        <v>294</v>
+      </c>
+      <c r="V3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
+        <v>517</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="N4" t="s">
+        <v>715</v>
+      </c>
+      <c r="O4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>286</v>
+      </c>
+      <c r="R4" t="s">
+        <v>216</v>
+      </c>
+      <c r="S4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" t="s">
+        <v>208</v>
+      </c>
+      <c r="U4" t="s">
+        <v>619</v>
+      </c>
+      <c r="V4" t="s">
+        <v>166</v>
+      </c>
+      <c r="W4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>658</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1215</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1216</v>
+      </c>
+      <c r="N5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>117</v>
+      </c>
+      <c r="R5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" t="s">
+        <v>72</v>
+      </c>
+      <c r="V5" t="s">
+        <v>73</v>
+      </c>
+      <c r="W5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1218</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="N6" t="s">
+        <v>867</v>
+      </c>
+      <c r="O6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>538</v>
+      </c>
+      <c r="R6" t="s">
+        <v>90</v>
+      </c>
+      <c r="S6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" t="s">
+        <v>208</v>
+      </c>
+      <c r="U6" t="s">
+        <v>701</v>
+      </c>
+      <c r="V6" t="s">
+        <v>164</v>
+      </c>
+      <c r="W6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D7" t="s">
+        <v>873</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1223</v>
+      </c>
+      <c r="N7" t="s">
+        <v>299</v>
+      </c>
+      <c r="O7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>384</v>
+      </c>
+      <c r="R7" t="s">
+        <v>161</v>
+      </c>
+      <c r="S7" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" t="s">
+        <v>208</v>
+      </c>
+      <c r="U7" t="s">
+        <v>57</v>
+      </c>
+      <c r="V7" t="s">
+        <v>164</v>
+      </c>
+      <c r="W7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>792</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1227</v>
+      </c>
+      <c r="N8" t="s">
+        <v>598</v>
+      </c>
+      <c r="O8" t="s">
+        <v>162</v>
+      </c>
+      <c r="P8" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>206</v>
+      </c>
+      <c r="R8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" t="s">
+        <v>208</v>
+      </c>
+      <c r="U8" t="s">
+        <v>758</v>
+      </c>
+      <c r="V8" t="s">
+        <v>318</v>
+      </c>
+      <c r="W8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1230</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1231</v>
+      </c>
+      <c r="N9" t="s">
+        <v>243</v>
+      </c>
+      <c r="O9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>325</v>
+      </c>
+      <c r="R9" t="s">
+        <v>126</v>
+      </c>
+      <c r="S9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" t="s">
+        <v>208</v>
+      </c>
+      <c r="U9" t="s">
+        <v>362</v>
+      </c>
+      <c r="V9" t="s">
+        <v>318</v>
+      </c>
+      <c r="W9" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>868</v>
+      </c>
+      <c r="C10" t="s">
+        <v>506</v>
+      </c>
+      <c r="D10" t="s">
+        <v>374</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1233</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1234</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1235</v>
+      </c>
+      <c r="R10" t="s">
+        <v>161</v>
+      </c>
+      <c r="S10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" t="s">
+        <v>208</v>
+      </c>
+      <c r="U10" t="s">
+        <v>1236</v>
+      </c>
+      <c r="V10" t="s">
+        <v>318</v>
+      </c>
+      <c r="W10" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1238</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1239</v>
+      </c>
+      <c r="N11" t="s">
+        <v>216</v>
+      </c>
+      <c r="O11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>222</v>
+      </c>
+      <c r="R11" t="s">
+        <v>161</v>
+      </c>
+      <c r="S11" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" t="s">
+        <v>208</v>
+      </c>
+      <c r="U11" t="s">
+        <v>209</v>
+      </c>
+      <c r="V11" t="s">
+        <v>164</v>
+      </c>
+      <c r="W11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" t="s">
+        <v>986</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1241</v>
+      </c>
+      <c r="N12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>434</v>
+      </c>
+      <c r="R12" t="s">
+        <v>48</v>
+      </c>
+      <c r="S12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" t="s">
+        <v>208</v>
+      </c>
+      <c r="U12" t="s">
+        <v>223</v>
+      </c>
+      <c r="V12" t="s">
+        <v>50</v>
+      </c>
+      <c r="W12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>408</v>
+      </c>
+      <c r="C13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1242</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>47</v>
+      </c>
+      <c r="R13" t="s">
+        <v>90</v>
+      </c>
+      <c r="S13" t="s">
+        <v>28</v>
+      </c>
+      <c r="T13" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" t="s">
+        <v>174</v>
+      </c>
+      <c r="V13" t="s">
+        <v>208</v>
+      </c>
+      <c r="W13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" t="s">
+        <v>420</v>
+      </c>
+      <c r="E14" t="s">
+        <v>797</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1245</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1246</v>
+      </c>
+      <c r="N14" t="s">
+        <v>243</v>
+      </c>
+      <c r="O14" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" t="s">
+        <v>1069</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>215</v>
+      </c>
+      <c r="R14" t="s">
+        <v>126</v>
+      </c>
+      <c r="S14" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" t="s">
+        <v>208</v>
+      </c>
+      <c r="U14" t="s">
+        <v>598</v>
+      </c>
+      <c r="V14" t="s">
+        <v>318</v>
+      </c>
+      <c r="W14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C15" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1249</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1250</v>
+      </c>
+      <c r="N15" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>434</v>
+      </c>
+      <c r="R15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" t="s">
+        <v>423</v>
+      </c>
+      <c r="V15" t="s">
+        <v>208</v>
+      </c>
+      <c r="W15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C16" t="s">
+        <v>475</v>
+      </c>
+      <c r="D16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1252</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1253</v>
+      </c>
+      <c r="N16" t="s">
+        <v>341</v>
+      </c>
+      <c r="O16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>422</v>
+      </c>
+      <c r="R16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" t="s">
+        <v>207</v>
+      </c>
+      <c r="U16" t="s">
+        <v>362</v>
+      </c>
+      <c r="V16" t="s">
+        <v>208</v>
+      </c>
+      <c r="W16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" t="s">
+        <v>495</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1256</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1257</v>
+      </c>
+      <c r="N17" t="s">
+        <v>118</v>
+      </c>
+      <c r="O17" t="s">
+        <v>48</v>
+      </c>
+      <c r="P17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>598</v>
+      </c>
+      <c r="R17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" t="s">
+        <v>91</v>
+      </c>
+      <c r="U17" t="s">
+        <v>1258</v>
+      </c>
+      <c r="V17" t="s">
+        <v>1081</v>
+      </c>
+      <c r="W17" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D18" t="s">
+        <v>307</v>
+      </c>
+      <c r="E18" t="s">
+        <v>541</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1261</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1262</v>
+      </c>
+      <c r="N18" t="s">
+        <v>92</v>
+      </c>
+      <c r="O18" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R18" t="s">
+        <v>142</v>
+      </c>
+      <c r="S18" t="s">
+        <v>29</v>
+      </c>
+      <c r="T18" t="s">
+        <v>208</v>
+      </c>
+      <c r="U18" t="s">
+        <v>950</v>
+      </c>
+      <c r="V18" t="s">
+        <v>164</v>
+      </c>
+      <c r="W18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>592</v>
+      </c>
+      <c r="C19" t="s">
+        <v>593</v>
+      </c>
+      <c r="D19" t="s">
+        <v>307</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1263</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1264</v>
+      </c>
+      <c r="N19" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" t="s">
+        <v>105</v>
+      </c>
+      <c r="P19" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>750</v>
+      </c>
+      <c r="R19" t="s">
+        <v>90</v>
+      </c>
+      <c r="S19" t="s">
+        <v>29</v>
+      </c>
+      <c r="T19" t="s">
+        <v>208</v>
+      </c>
+      <c r="U19" t="s">
+        <v>696</v>
+      </c>
+      <c r="V19" t="s">
+        <v>36</v>
+      </c>
+      <c r="W19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>478</v>
+      </c>
+      <c r="D20" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1265</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1266</v>
+      </c>
+      <c r="N20" t="s">
+        <v>82</v>
+      </c>
+      <c r="O20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P20" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>335</v>
+      </c>
+      <c r="R20" t="s">
+        <v>142</v>
+      </c>
+      <c r="S20" t="s">
+        <v>29</v>
+      </c>
+      <c r="T20" t="s">
+        <v>208</v>
+      </c>
+      <c r="U20" t="s">
+        <v>591</v>
+      </c>
+      <c r="V20" t="s">
+        <v>91</v>
+      </c>
+      <c r="W20" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" t="s">
+        <v>289</v>
+      </c>
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1268</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1269</v>
+      </c>
+      <c r="N21" t="s">
+        <v>217</v>
+      </c>
+      <c r="O21" t="s">
+        <v>142</v>
+      </c>
+      <c r="P21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>384</v>
+      </c>
+      <c r="R21" t="s">
+        <v>33</v>
+      </c>
+      <c r="S21" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" t="s">
+        <v>166</v>
+      </c>
+      <c r="U21" t="s">
+        <v>304</v>
+      </c>
+      <c r="V21" t="s">
+        <v>50</v>
+      </c>
+      <c r="W21" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:W20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="N2" t="s">
+        <v>205</v>
+      </c>
+      <c r="O2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" t="s">
+        <v>175</v>
+      </c>
+      <c r="V2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C3" t="s">
+        <v>593</v>
+      </c>
+      <c r="D3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="N3" t="s">
+        <v>217</v>
+      </c>
+      <c r="O3" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>181</v>
+      </c>
+      <c r="R3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" t="s">
+        <v>208</v>
+      </c>
+      <c r="U3" t="s">
+        <v>118</v>
+      </c>
+      <c r="V3" t="s">
+        <v>164</v>
+      </c>
+      <c r="W3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1277</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="N4" t="s">
+        <v>277</v>
+      </c>
+      <c r="O4" t="s">
+        <v>205</v>
+      </c>
+      <c r="P4" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1279</v>
+      </c>
+      <c r="R4" t="s">
+        <v>142</v>
+      </c>
+      <c r="S4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" t="s">
+        <v>72</v>
+      </c>
+      <c r="V4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1282</v>
+      </c>
+      <c r="N5" t="s">
+        <v>243</v>
+      </c>
+      <c r="O5" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>287</v>
+      </c>
+      <c r="R5" t="s">
+        <v>142</v>
+      </c>
+      <c r="S5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" t="s">
+        <v>208</v>
+      </c>
+      <c r="U5" t="s">
+        <v>145</v>
+      </c>
+      <c r="V5" t="s">
+        <v>318</v>
+      </c>
+      <c r="W5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" t="s">
+        <v>547</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1285</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="N6" t="s">
+        <v>613</v>
+      </c>
+      <c r="O6" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>215</v>
+      </c>
+      <c r="R6" t="s">
+        <v>216</v>
+      </c>
+      <c r="S6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" t="s">
+        <v>318</v>
+      </c>
+      <c r="U6" t="s">
+        <v>751</v>
+      </c>
+      <c r="V6" t="s">
+        <v>1287</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1289</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1290</v>
+      </c>
+      <c r="N7" t="s">
+        <v>142</v>
+      </c>
+      <c r="O7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>222</v>
+      </c>
+      <c r="R7" t="s">
+        <v>90</v>
+      </c>
+      <c r="S7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U7" t="s">
+        <v>1273</v>
+      </c>
+      <c r="V7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" t="s">
+        <v>439</v>
+      </c>
+      <c r="E8" t="s">
+        <v>804</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1290</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1069</v>
+      </c>
+      <c r="O8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>715</v>
+      </c>
+      <c r="R8" t="s">
+        <v>48</v>
+      </c>
+      <c r="S8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" t="s">
+        <v>604</v>
+      </c>
+      <c r="V8" t="s">
+        <v>208</v>
+      </c>
+      <c r="W8" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1292</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1293</v>
+      </c>
+      <c r="N9" t="s">
+        <v>162</v>
+      </c>
+      <c r="O9" t="s">
+        <v>105</v>
+      </c>
+      <c r="P9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" t="s">
+        <v>208</v>
+      </c>
+      <c r="U9" t="s">
+        <v>558</v>
+      </c>
+      <c r="V9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D10" t="s">
+        <v>374</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1296</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1297</v>
+      </c>
+      <c r="N10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>498</v>
+      </c>
+      <c r="R10" t="s">
+        <v>105</v>
+      </c>
+      <c r="S10" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" t="s">
+        <v>165</v>
+      </c>
+      <c r="V10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W10" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>556</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1299</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1300</v>
+      </c>
+      <c r="N11" t="s">
+        <v>162</v>
+      </c>
+      <c r="O11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1125</v>
+      </c>
+      <c r="R11" t="s">
+        <v>126</v>
+      </c>
+      <c r="S11" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" t="s">
+        <v>208</v>
+      </c>
+      <c r="U11" t="s">
+        <v>459</v>
+      </c>
+      <c r="V11" t="s">
+        <v>108</v>
+      </c>
+      <c r="W11" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>658</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1302</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1303</v>
+      </c>
+      <c r="N12" t="s">
+        <v>215</v>
+      </c>
+      <c r="O12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>1125</v>
+      </c>
+      <c r="R12" t="s">
+        <v>126</v>
+      </c>
+      <c r="S12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T12" t="s">
+        <v>38</v>
+      </c>
+      <c r="U12" t="s">
+        <v>72</v>
+      </c>
+      <c r="V12" t="s">
+        <v>73</v>
+      </c>
+      <c r="W12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" t="s">
+        <v>510</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1305</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1306</v>
+      </c>
+      <c r="N13" t="s">
+        <v>181</v>
+      </c>
+      <c r="O13" t="s">
+        <v>216</v>
+      </c>
+      <c r="P13" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>161</v>
+      </c>
+      <c r="R13" t="s">
+        <v>90</v>
+      </c>
+      <c r="S13" t="s">
+        <v>29</v>
+      </c>
+      <c r="T13" t="s">
+        <v>318</v>
+      </c>
+      <c r="U13" t="s">
+        <v>223</v>
+      </c>
+      <c r="V13" t="s">
+        <v>208</v>
+      </c>
+      <c r="W13" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1307</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1306</v>
+      </c>
+      <c r="N14" t="s">
+        <v>205</v>
+      </c>
+      <c r="O14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>227</v>
+      </c>
+      <c r="R14" t="s">
+        <v>33</v>
+      </c>
+      <c r="S14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T14" t="s">
+        <v>208</v>
+      </c>
+      <c r="U14" t="s">
+        <v>109</v>
+      </c>
+      <c r="V14" t="s">
+        <v>50</v>
+      </c>
+      <c r="W14" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D15" t="s">
+        <v>587</v>
+      </c>
+      <c r="E15" t="s">
+        <v>491</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1310</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1311</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1125</v>
+      </c>
+      <c r="O15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>867</v>
+      </c>
+      <c r="R15" t="s">
+        <v>80</v>
+      </c>
+      <c r="S15" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" t="s">
+        <v>208</v>
+      </c>
+      <c r="U15" t="s">
+        <v>223</v>
+      </c>
+      <c r="V15" t="s">
+        <v>318</v>
+      </c>
+      <c r="W15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1315</v>
+      </c>
+      <c r="N16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>730</v>
+      </c>
+      <c r="R16" t="s">
+        <v>126</v>
+      </c>
+      <c r="S16" t="s">
+        <v>28</v>
+      </c>
+      <c r="T16" t="s">
+        <v>50</v>
+      </c>
+      <c r="U16" t="s">
+        <v>373</v>
+      </c>
+      <c r="V16" t="s">
+        <v>372</v>
+      </c>
+      <c r="W16" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1319</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1320</v>
+      </c>
+      <c r="N17" t="s">
+        <v>531</v>
+      </c>
+      <c r="O17" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>252</v>
+      </c>
+      <c r="R17" t="s">
+        <v>90</v>
+      </c>
+      <c r="S17" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" t="s">
+        <v>318</v>
+      </c>
+      <c r="U17" t="s">
+        <v>236</v>
+      </c>
+      <c r="V17" t="s">
+        <v>514</v>
+      </c>
+      <c r="W17" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1323</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1324</v>
+      </c>
+      <c r="N18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>1125</v>
+      </c>
+      <c r="R18" t="s">
+        <v>105</v>
+      </c>
+      <c r="S18" t="s">
+        <v>28</v>
+      </c>
+      <c r="T18" t="s">
+        <v>372</v>
+      </c>
+      <c r="U18" t="s">
+        <v>710</v>
+      </c>
+      <c r="V18" t="s">
+        <v>208</v>
+      </c>
+      <c r="W18" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D19" t="s">
+        <v>264</v>
+      </c>
+      <c r="E19" t="s">
+        <v>296</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1326</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1327</v>
+      </c>
+      <c r="N19" t="s">
+        <v>325</v>
+      </c>
+      <c r="O19" t="s">
+        <v>216</v>
+      </c>
+      <c r="P19" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" t="s">
+        <v>252</v>
+      </c>
+      <c r="S19" t="s">
+        <v>28</v>
+      </c>
+      <c r="T19" t="s">
+        <v>38</v>
+      </c>
+      <c r="U19" t="s">
+        <v>1054</v>
+      </c>
+      <c r="V19" t="s">
+        <v>208</v>
+      </c>
+      <c r="W19" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C20" t="s">
+        <v>395</v>
+      </c>
+      <c r="D20" t="s">
+        <v>273</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" t="s">
+        <v>382</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1330</v>
+      </c>
+      <c r="N20" t="s">
+        <v>757</v>
+      </c>
+      <c r="O20" t="s">
+        <v>206</v>
+      </c>
+      <c r="P20" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>80</v>
+      </c>
+      <c r="R20" t="s">
+        <v>161</v>
+      </c>
+      <c r="S20" t="s">
+        <v>29</v>
+      </c>
+      <c r="T20" t="s">
+        <v>318</v>
+      </c>
+      <c r="U20" t="s">
+        <v>1331</v>
+      </c>
+      <c r="V20" t="s">
+        <v>208</v>
+      </c>
+      <c r="W20" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q20">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W21"/>
@@ -16847,9 +25279,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q21">
-    <sortCondition ref="A1"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>